--- a/biology/Zoologie/Charaxes_jasius/Charaxes_jasius.xlsx
+++ b/biology/Zoologie/Charaxes_jasius/Charaxes_jasius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphale de l'arbousier
 La Nymphale de l'arbousier (Charaxes jasius), aussi appelée Pacha à deux queues, Jason ou encore Jasius, est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Charaxinae.
@@ -514,14 +526,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imago
-Le Pacha à deux queues est un grand papillon au dessus marron bordé d'orange avec aux ailes antérieures, une seconde ligne orange et deux queues aux ailes postérieures.
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pacha à deux queues est un grand papillon au dessus marron bordé d'orange avec aux ailes antérieures, une seconde ligne orange et deux queues aux ailes postérieures.
 	imago
 			Imago, face supérieure
 			Revers
 Le revers est très ornementé, marron avec dessins blancs, bordure orange, marron puis orange puis blanc aux antérieures, bordure orange, marron puis blanc aux postérieures.
-Chenille
-La chenille possède une tête verte munie de quatre prolongements à apex rougeâtre et un corps vert tacheté de points blancs à extrémité postérieure bifide[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille possède une tête verte munie de quatre prolongements à apex rougeâtre et un corps vert tacheté de points blancs à extrémité postérieure bifide.
 			Œuf
 			Chenille
 			Chrysalide
@@ -529,42 +581,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Charaxes_jasius</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charaxes_jasius</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Bivoltin, il vole de mai à juin puis d'août à octobre.
-Il hiverne à l'état larvaire.
-C'est un grand voilier capable de migration verticale ou de tenter d'agrandir son territoire, ce qui nécessite une présence de sa plante-hôte, l'arbousier[2].
-Plantes-hôtes
-La plante-hôte de sa chenille est l'arbousier (Arbutus unedo). En son absence, il pourrait être remplacé par Osyris quadripartita[3] et en Afrique par le sorgho[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -586,17 +602,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charaxes jasius fait partie du sous-groupe des Charaxes africains et est présent dans tout l'Ouest et le Sud de l'Afrique (Éthiopie, Somalie, Soudan, Angola, Gabon, Zaïre, Kenya, Ouganda, Afrique du Sud, Botswana, Mozambique, Namibie, République démocratique du Congo Zimbabwe, Zambie, Malawi, Tanzanie) ainsi que sur la côte atlantique (Côte d'Ivoire, Sierra Leone, Guinée, Sénégal).
-Il est présent sur les rivages méditerranéens en Afrique du Nord et en Europe (Espagne, France, Italie, Grèce, Turquie), sur les îles de la Méditerranée (dont Corse, Sardaigne, Sicile, Crète), et sur la côte atlantique du Portugal[5].
-En France métropolitaine, il est présent dans tous les départements du pourtour méditerranéen, et dans quelques départements proches, comme l'Ardèche et le Vaucluse[6],[7]. Découvert en Aquitaine en 2015, il progresse rapidement dans le Sud Ouest de la France, repoussant chaque année sa répartition vers le nord[8].
-En 2023, son aire de reproduction sur la façade atlantique, s'étire du sud du Pays Basque à l'île d'Oléron où il semble bien réparti[9].
-Biotope
-Le Pacha à deux queues est présent dans les régions côtières jusqu’à 1 000 m, dans les zones où abonde sa plante-hôte, l'arbousier.
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bivoltin, il vole de mai à juin puis d'août à octobre.
+Il hiverne à l'état larvaire.
+C'est un grand voilier capable de migration verticale ou de tenter d'agrandir son territoire, ce qui nécessite une présence de sa plante-hôte, l'arbousier.
 </t>
         </is>
       </c>
@@ -622,103 +641,288 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante-hôte de sa chenille est l'arbousier (Arbutus unedo). En son absence, il pourrait être remplacé par Osyris quadripartita et en Afrique par le sorgho.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes jasius fait partie du sous-groupe des Charaxes africains et est présent dans tout l'Ouest et le Sud de l'Afrique (Éthiopie, Somalie, Soudan, Angola, Gabon, Zaïre, Kenya, Ouganda, Afrique du Sud, Botswana, Mozambique, Namibie, République démocratique du Congo Zimbabwe, Zambie, Malawi, Tanzanie) ainsi que sur la côte atlantique (Côte d'Ivoire, Sierra Leone, Guinée, Sénégal).
+Il est présent sur les rivages méditerranéens en Afrique du Nord et en Europe (Espagne, France, Italie, Grèce, Turquie), sur les îles de la Méditerranée (dont Corse, Sardaigne, Sicile, Crète), et sur la côte atlantique du Portugal.
+En France métropolitaine, il est présent dans tous les départements du pourtour méditerranéen, et dans quelques départements proches, comme l'Ardèche et le Vaucluse,. Découvert en Aquitaine en 2015, il progresse rapidement dans le Sud Ouest de la France, repoussant chaque année sa répartition vers le nord.
+En 2023, son aire de reproduction sur la façade atlantique, s'étire du sud du Pays Basque à l'île d'Oléron où il semble bien réparti.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Pacha à deux queues est présent dans les régions côtières jusqu’à 1 000 m, dans les zones où abonde sa plante-hôte, l'arbousier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Charaxes jasius a été décrite par le naturaliste suédois Carl von Linné en 1767, sous le nom initial de Papilio jasius[10]. La localité type est l’Algérie.
-Synonymes
-Papilio jasius Linné, 1767 – protonyme
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Charaxes jasius a été décrite par le naturaliste suédois Carl von Linné en 1767, sous le nom initial de Papilio jasius. La localité type est l’Algérie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Papilio jasius Linné, 1767 – protonyme
 Papilio jason Linné, 1767
-Charaxes epijasius  Reiche, 1850 [11]
-Charaxes saturnus Butler, 1866 [12]
+Charaxes epijasius  Reiche, 1850 
+Charaxes saturnus Butler, 1866 
 Charaxes castor var. flavicinctus Butler, 1895
 Charaxes pelias saturnus ab. brunnescens  Rothschild, 1900
 Charaxes epijasius maculatus Suffert, 1904
-Charaxes harrisoni  Sharpe, 1904 [13]
+Charaxes harrisoni  Sharpe, 1904 
 Charaxes saturnus ab. pagenstecheri Schultze, 1913
 Charaxes jasius var. major Oberthür, 1922
 Charaxes epijasius f. murina  Le Cerf, 1923
 Charaxes epijasius f. feisthameli  Le Cerf, 1923
 Charaxes pelias liberiae  Le Cerf, 1923
-Charaxes pelias brunnescens   Poulton, 1926 [14]
-Charaxes pelias pagenstecheri  Poulton, 1926 [14]
+Charaxes pelias brunnescens   Poulton, 1926 
+Charaxes pelias pagenstecheri  Poulton, 1926 
 Charaxes jasius epijasius f. aeson Stoneham, 1960
 Charaxes jasius epijasius f. plutus  Stoneham, 1960
 Charaxes jasius epijasius f. alcimede  Stoneham, 1960
 Charaxes jasius epijasius var. melas van Someren, 1963
 Charaxes jasius harrisoni f. saturnalis van Someren, 1963
-Charaxes jasius epijasius f. aesonius Stoneham, 1964
-Taxinomie
-Liste des sous-espèces
+Charaxes jasius epijasius f. aesonius Stoneham, 1964</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Charaxes jasius jasius en Afrique du Nord et sur le pourtour méditerranéen.
 Charaxes jasius brunnescens (Poulton, 1926) ; en Angola, au Gabon et au Zaïre.
 Charaxes jasius epijasius (Reiche, 1850) ; dans le nord de l'Éthiopie, au Soudan, dans le nord-ouest du Kenya, en Ouganda, au Nigeria, au Bénin, en Côte d'Ivoire, en Sierra Leone, en Guinée, et au Sénégal.
 Charaxes jasius harrisoni (Sharpe, 1904) au  Kenya, en Tanzanie et dans le sud-ouest de l'Ouganda.
 Charaxes jasius pagenstecheri (Poulton, 1926)  dans le sud de l'Éthiopie et en Somalie.
-Charaxes jasius saturnus (Butler, 1865) en Afrique du Sud, au Botswana, au Mozambique, en Namibie, au Zimbabwe, en Zambie, au Malawi, en Tanzanie, et sur la côte du Kenya[15].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Charaxes_jasius</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charaxes_jasius</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Charaxes jasius saturnus (Butler, 1865) en Afrique du Sud, au Botswana, au Mozambique, en Namibie, au Zimbabwe, en Zambie, au Malawi, en Tanzanie, et sur la côte du Kenya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>en français : la Nymphale de l'arbousier, le Pacha à deux queues, le Jason, le Jasius[16]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>en français : la Nymphale de l'arbousier, le Pacha à deux queues, le Jason, le Jasius
 en anglais : two-tailed pasha ou foxy emperor
 en allemand : Erdbeerbaumfalter
 en espagnol : mariposa del madroño</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Charaxes_jasius</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charaxes_jasius</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_jasius</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission de Palestine de 1965 (valeur faciale : 0,02 l) et sur d'autres de Botswana, Espagne, Guinée équatoriale, Gibraltar, et Hongrie.
 </t>
